--- a/PS5 Stripado.xlsx
+++ b/PS5 Stripado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agchi\Documents\GitHub\P1-Ciencia-dos-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501896A-FF66-4BF9-846D-248BAA668EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2432579-D8B7-4033-ACD1-7CAC494C49E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4635" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,7 +2153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="122" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
